--- a/meta/en/2-3-2-a.xlsx
+++ b/meta/en/2-3-2-a.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="12360"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,82 +16,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>1. Информация об индикаторе</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>2. Информация об организации</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Контактное лицо (лица) / Координатор</t>
-  </si>
-  <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
-  </si>
-  <si>
-    <t>3. Определения и понятия</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t>Основные понятия:</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>4. Источники данных и методы сбора</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
-  </si>
-  <si>
-    <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>5. Метод расчета и другие методологические основы</t>
-  </si>
-  <si>
-    <t>Метод расчета:</t>
-  </si>
-  <si>
-    <t>Комментарий и ограничения:</t>
-  </si>
-  <si>
-    <t>Гарантия качества:</t>
-  </si>
-  <si>
-    <t>6. Доступность данных и дезагрегация</t>
-  </si>
-  <si>
-    <t>Доступность данных и пробелы:</t>
-  </si>
-  <si>
-    <t>Разбивка:</t>
-  </si>
-  <si>
-    <t>7. Сопоставимость с международными данными / стандартами</t>
-  </si>
-  <si>
-    <t>8. Ссылки и документация</t>
+    <t>1. Indicator information</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>2. Data reporter</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Contact person(s)/Focal point</t>
+  </si>
+  <si>
+    <t>Contact person's email</t>
+  </si>
+  <si>
+    <t>Contact person's phone</t>
+  </si>
+  <si>
+    <t>Organization website (if available)</t>
+  </si>
+  <si>
+    <t>3. Definitions and concepts</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Rationale and interpretation</t>
+  </si>
+  <si>
+    <t>4. Data sources and collection methods</t>
+  </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Data collection methods</t>
+  </si>
+  <si>
+    <t>5. Method of computation and other methodological considerations</t>
+  </si>
+  <si>
+    <t>Method of computation</t>
+  </si>
+  <si>
+    <t>Comments and limitations</t>
+  </si>
+  <si>
+    <t>Quality assurance</t>
+  </si>
+  <si>
+    <t>6. Data availability and disaggregation</t>
+  </si>
+  <si>
+    <t>Data availability and gaps</t>
+  </si>
+  <si>
+    <t>Disaggregation</t>
+  </si>
+  <si>
+    <t>7. Comparability with international data/standards</t>
+  </si>
+  <si>
+    <t>8. References and documentation</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Agricultural Statistics)</t>
+  </si>
+  <si>
+    <t>Mursabekova G.T.</t>
   </si>
   <si>
     <t>g.mursabekova@stat.kg</t>
@@ -100,22 +109,13 @@
     <t>(0312) 60 40 43</t>
   </si>
   <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
     <t>2. End hunger, achieve food security and improved nutrition and promote sustainable agriculture</t>
   </si>
   <si>
+    <t>2.3 By 2030, double the agricultural productivity and incomes of small-scale food producers, in particular women, indigenous peoples, family farmers, pastoralists and fishers, including through secure and equal access to land, other productive resources and inputs, knowledge, financial services, markets and opportunities for value addition and non-farm employment</t>
+  </si>
+  <si>
     <t>2.3.2.a Share of agricultural production by cooperatives in total agricultural production in the country</t>
-  </si>
-  <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Department of Agricultural Statistics)</t>
-  </si>
-  <si>
-    <t>Mursabekova G.T.</t>
-  </si>
-  <si>
-    <t>2.3 By 2030, double the agricultural productivity and incomes of small-scale food producers, in particular women, indigenous peoples, family farmers, pastoralists and fishers, including through secure and equal access to land, other productive resources and inputs, knowledge, financial services, markets and opportunities for value addition and non-farm employment</t>
   </si>
   <si>
     <t>Determining the share of products produced by agricultural cooperatives in the total volume of products produced, in %</t>
@@ -128,16 +128,6 @@
   <si>
     <t>"An agricultural cooperative that produces livestock products annually reports once a year on statistical reporting Form No. 24 (annual) "Report on the state of livestock production on January 1";
 An agricultural cooperative that produces crop production annually reports once a year on statistical reporting Form No. 29 (annual) "On harvesting crops from all lands and from irrigated lands.""</t>
-  </si>
-  <si>
-    <t>"Statistical reporting:
-- Form No. 24 (annual) "Report on the state of animal husbandry as of January 1";
-- Form No. 29 (annual) "On harvesting crops from all lands and from irrigated lands.""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - agricultural cooperatives (legal entities) independently submit reports on the state forms of statistical reporting of agriculture to the statistical authorities of the territory.
-  - collecting information on the crop industry:
-- collection of information on the livestock industry (livestock and their products):</t>
   </si>
   <si>
     <t>Calculation of the additional national SDG indicator 2.3.2.a The share of products produced by agricultural cooperatives in the total volume of products produced in the republic is calculated using the formula:
@@ -152,12 +142,22 @@
   <si>
     <t>Dynamic series have been available since 2018.</t>
   </si>
+  <si>
+    <t>"Statistical reporting:
+- Form No. 24 (annual) "Report on the state of animal husbandry as of January 1";
+- Form No. 29 (annual) "On harvesting crops from all lands and from irrigated lands.""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - agricultural cooperatives (legal entities) independently submit reports on the state forms of statistical reporting of agriculture to the statistical authorities of the territory.
+  - collecting information on the crop industry:
+- collection of information on the livestock industry (livestock and their products):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,7 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,11 +205,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,84 +250,77 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="13">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 3" xfId="5"/>
-    <cellStyle name="Обычный 2 4" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 2 2" xfId="4"/>
+    <cellStyle name="Обычный 2 2 2" xfId="9"/>
+    <cellStyle name="Обычный 2 3" xfId="6"/>
+    <cellStyle name="Обычный 2 3 2" xfId="11"/>
+    <cellStyle name="Обычный 2 4" xfId="3"/>
+    <cellStyle name="Обычный 2 4 2" xfId="8"/>
+    <cellStyle name="Обычный 2 5" xfId="7"/>
+    <cellStyle name="Обычный 2 6" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="5"/>
+    <cellStyle name="Обычный 3 2" xfId="10"/>
+    <cellStyle name="Обычный 4" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -623,7 +625,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +645,16 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -660,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,40 +675,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>26</v>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>27</v>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,11 +717,11 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -727,15 +729,15 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -745,20 +747,20 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -767,26 +769,26 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
